--- a/target/classes/TestDataFromExcel/FAProgramVersions.xlsx
+++ b/target/classes/TestDataFromExcel/FAProgramVersions.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GopalBackUp\WorkSpace\APIRestAssuredToolsQA\src\main\java\TestDataFromExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GopalBackUp\WorkSpace\APIRestAssuredToolsQA\src\main\BaseClasses\TestDataFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58295FCF-7260-41A6-9C25-C53B8D11C5EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4DFAF6-8591-42B7-97FA-9E6CFF7560B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31B1A639-A200-4511-B24B-4A44899FDF40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{31B1A639-A200-4511-B24B-4A44899FDF40}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="FAPVEDIT" sheetId="2" r:id="rId1"/>
+    <sheet name="NEWTERMS" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="187">
   <si>
     <t>isExcludedCrmIntegration</t>
   </si>
@@ -352,13 +353,253 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>2020/01/06 11:23:01</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>2020/03/31 00:00:09</t>
+  </si>
+  <si>
+    <t>2020/01/16 00:00:09</t>
+  </si>
+  <si>
+    <t>QUHESP19-20</t>
+  </si>
+  <si>
+    <t>QUHESPAU12</t>
+  </si>
+  <si>
+    <t>2020/01/15 00:00:09</t>
+  </si>
+  <si>
+    <t>2019/12/16 00:00:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUHEWT19-20    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUHEWTAU11 </t>
+  </si>
+  <si>
+    <t>2019/12/15 00:00:09</t>
+  </si>
+  <si>
+    <t>2019/08/01 00:00:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUHEFA19-20  </t>
+  </si>
+  <si>
+    <t>QUHEFAAU10</t>
+  </si>
+  <si>
+    <t>2019/07/31 00:00:09</t>
+  </si>
+  <si>
+    <t>2019/04/01 00:00:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUHESU19-20 </t>
+  </si>
+  <si>
+    <t>QUHESUAU9</t>
+  </si>
+  <si>
+    <t>2019/03/31 00:00:09</t>
+  </si>
+  <si>
+    <t>2019/01/16 00:00:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUHESP18-19 </t>
+  </si>
+  <si>
+    <t>QUHESPAU8</t>
+  </si>
+  <si>
+    <t>2019/01/15 00:00:09</t>
+  </si>
+  <si>
+    <t>2018/12/16 00:00:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUHEWT18-19  </t>
+  </si>
+  <si>
+    <t>QUHEWTAU7</t>
+  </si>
+  <si>
+    <t>2018/12/15 00:00:09</t>
+  </si>
+  <si>
+    <t>2018/08/01 00:00:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUHEFA18-19 </t>
+  </si>
+  <si>
+    <t>QUHEFAAU6</t>
+  </si>
+  <si>
+    <t>2018/07/31 00:00:09</t>
+  </si>
+  <si>
+    <t>2018/04/01 00:00:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUHESU18-19   </t>
+  </si>
+  <si>
+    <t>QUHESUAU5</t>
+  </si>
+  <si>
+    <t>2018/03/31 00:00:09</t>
+  </si>
+  <si>
+    <t>2018/01/16 00:00:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUHESP17-18  </t>
+  </si>
+  <si>
+    <t>QUHESPAU4</t>
+  </si>
+  <si>
+    <t>2018/01/15 00:00:09</t>
+  </si>
+  <si>
+    <t>2017/12/16 00:00:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUHEWT17-18  </t>
+  </si>
+  <si>
+    <t>QUHEWTAU3</t>
+  </si>
+  <si>
+    <t>2017/12/15 00:00:09</t>
+  </si>
+  <si>
+    <t>2017/08/01 00:00:09</t>
+  </si>
+  <si>
+    <t>QUHEFA17-18</t>
+  </si>
+  <si>
+    <t>QUHEFAAU2</t>
+  </si>
+  <si>
+    <t>2017/07/31 00:00:09</t>
+  </si>
+  <si>
+    <t>2017/04/01 00:00:09</t>
+  </si>
+  <si>
+    <t>QUHESU17-18</t>
+  </si>
+  <si>
+    <t>QUHESUAU1</t>
+  </si>
+  <si>
+    <t>createdDateTime</t>
+  </si>
+  <si>
+    <t>shiftId</t>
+  </si>
+  <si>
+    <t>sendStudentRegistrationDataToLms</t>
+  </si>
+  <si>
+    <t>sendStudentRegistrationDataInitialDoneToLms</t>
+  </si>
+  <si>
+    <t>sendInstructorAssignmentsToLms</t>
+  </si>
+  <si>
+    <t>sendInstructorAssignmentsInitialDoneToLms</t>
+  </si>
+  <si>
+    <t>sendCourseSectionDataToLms</t>
+  </si>
+  <si>
+    <t>sendCourseSectionDataInitialDoneToLms</t>
+  </si>
+  <si>
+    <t>scheduleChangesType</t>
+  </si>
+  <si>
+    <t>sapCalcDaysAfterTermEnd</t>
+  </si>
+  <si>
+    <t>numberOfDaysPriorToTermStartDate</t>
+  </si>
+  <si>
+    <t>numberOfDaysAfterTermStartDate</t>
+  </si>
+  <si>
+    <t>lastModifiedUserId</t>
+  </si>
+  <si>
+    <t>lastModifiedDateTime</t>
+  </si>
+  <si>
+    <t>isTermSuspendLiftedCampusLinkAmbassador</t>
+  </si>
+  <si>
+    <t>isTermOpen</t>
+  </si>
+  <si>
+    <t>isSapTerm</t>
+  </si>
+  <si>
+    <t>isPrePullRequiredForGlobal</t>
+  </si>
+  <si>
+    <t>isGlobalExtractTerm</t>
+  </si>
+  <si>
+    <t>isAttendanceRecorded</t>
+  </si>
+  <si>
+    <t>isOnlineUsageAllowed</t>
+  </si>
+  <si>
+    <t>revenueUnits</t>
+  </si>
+  <si>
+    <t>isChildTermDatesRuleEnforced</t>
+  </si>
+  <si>
+    <t>summerHeaderOrTrailer</t>
+  </si>
+  <si>
+    <t>termUsage</t>
+  </si>
+  <si>
+    <t>standardTermType</t>
+  </si>
+  <si>
+    <t>isStandardTerm</t>
+  </si>
+  <si>
+    <t>faAcademicCalendar</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>startDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +612,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -399,11 +646,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B473D8A7-6F9C-487E-9363-B523F7C5BD61}">
   <dimension ref="A1:CK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,4 +1753,1406 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAB5FE6-6BFF-4F83-952E-1B9BEC72D1F1}">
+  <dimension ref="A1:AH13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>